--- a/3_Results/33_ResultsHTC/htc_individual_interaction.xlsx
+++ b/3_Results/33_ResultsHTC/htc_individual_interaction.xlsx
@@ -456,7 +456,7 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>Y1_ik ~ T_k + gender + age + marital_status + education + monthly_income + alcohol_weekly + partners_12mos + prop_began_infected + prop_male + prop_vlsupp + T_k * gender + T_k * age + T_k * monthly_income + T_k * prop_began_infected</t>
+          <t>Y1_ik ~ T_k + gender + age + marital_status + education + alcohol_weekly + partners_12mos + prop_began_infected + prop_male + monthly_income + T_k * gender + T_k * age + T_k * monthly_income + T_k * education + T_k * prop_began_infected</t>
         </is>
       </c>
     </row>
@@ -468,7 +468,7 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>Y1_ik ~ T_k + gender + age + marital_status + education + alcohol_weekly + partners_12mos + prop_began_infected + prop_male</t>
+          <t>Y1_ik ~ T_k + gender + age + marital_status + education + alcohol_weekly + partners_12mos + prop_began_infected + prop_male + monthly_income</t>
         </is>
       </c>
     </row>
@@ -480,7 +480,7 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>Y1_ik ~ T_k + X2_ik + gender + age + marital_status + education + monthly_income + alcohol_weekly + partners_12mos + prop_began_infected + prop_male + prop_vlsupp + T_k * gender + T_k * age + T_k * monthly_income + T_k * prop_began_infected</t>
+          <t>Y1_ik ~ T_k + X2_ik + gender + age + marital_status + education + alcohol_weekly + partners_12mos + prop_began_infected + prop_male + monthly_income + T_k * gender + T_k * age + T_k * monthly_income + T_k * education + T_k * prop_began_infected</t>
         </is>
       </c>
     </row>
@@ -492,7 +492,7 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>Y1_ik ~ T_k + X2_ik + gender + age + marital_status + education + alcohol_weekly + partners_12mos + prop_began_infected + prop_male</t>
+          <t>Y1_ik ~ T_k + X2_ik + gender + age + marital_status + education + alcohol_weekly + partners_12mos + prop_began_infected + prop_male + monthly_income</t>
         </is>
       </c>
     </row>
@@ -569,7 +569,7 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>-0.44 (-0.78, -0.11)</t>
+          <t>-0.45 (-0.79, -0.11)</t>
         </is>
       </c>
       <c r="E2">
@@ -603,7 +603,7 @@
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>-0.44 (-0.78, -0.1)</t>
+          <t>-0.45 (-0.78, -0.11)</t>
         </is>
       </c>
       <c r="E3">
@@ -637,17 +637,17 @@
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>-0.01 (-0.57, 0.54)</t>
+          <t>-0.01 (-0.49, 0.47)</t>
         </is>
       </c>
       <c r="E4">
-        <v>0.96</v>
+        <v>0.98</v>
       </c>
       <c r="G4">
-        <v>0.08</v>
+        <v>0.06</v>
       </c>
       <c r="H4">
-        <v>0.28</v>
+        <v>0.24</v>
       </c>
     </row>
     <row r="5">
@@ -690,17 +690,17 @@
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>0.03 (-1.15, 1.2)</t>
+          <t>0.01 (-1.04, 1.07)</t>
         </is>
       </c>
       <c r="E6">
-        <v>0.48</v>
+        <v>0.49</v>
       </c>
       <c r="G6">
-        <v>0.36</v>
+        <v>0.29</v>
       </c>
       <c r="H6">
-        <v>0.6</v>
+        <v>0.54</v>
       </c>
     </row>
     <row r="7">
@@ -798,7 +798,7 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>0.64 (0.46, 0.9)</t>
+          <t>0.64 (0.45, 0.89)</t>
         </is>
       </c>
       <c r="E2">
@@ -832,7 +832,7 @@
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>0.65 (0.46, 0.91)</t>
+          <t>0.64 (0.46, 0.9)</t>
         </is>
       </c>
       <c r="E3">
@@ -866,17 +866,17 @@
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>0.99 (0.57, 1.72)</t>
+          <t>0.99 (0.62, 1.61)</t>
         </is>
       </c>
       <c r="E4">
-        <v>0.96</v>
+        <v>0.98</v>
       </c>
       <c r="G4">
-        <v>0.08</v>
+        <v>0.06</v>
       </c>
       <c r="H4">
-        <v>0.28</v>
+        <v>0.24</v>
       </c>
     </row>
     <row r="5">
@@ -919,17 +919,17 @@
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>0.03 (-1.15, 1.2)</t>
+          <t>0.01 (-1.04, 1.07)</t>
         </is>
       </c>
       <c r="E6">
-        <v>0.48</v>
+        <v>0.49</v>
       </c>
       <c r="G6">
-        <v>0.36</v>
+        <v>0.29</v>
       </c>
       <c r="H6">
-        <v>0.6</v>
+        <v>0.54</v>
       </c>
     </row>
     <row r="7">
@@ -961,7 +961,7 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G16"/>
+  <dimension ref="A1:G21"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -1017,7 +1017,7 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>-0.44 (-0.78, -0.11)</t>
+          <t>-0.45 (-0.79, -0.11)</t>
         </is>
       </c>
       <c r="D2">
@@ -1046,7 +1046,7 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>-1.42 (-1.87, -0.97)</t>
+          <t>-1.44 (-1.9, -0.99)</t>
         </is>
       </c>
       <c r="D3">
@@ -1079,7 +1079,7 @@
         </is>
       </c>
       <c r="D4">
-        <v>0.06</v>
+        <v>0.03</v>
       </c>
       <c r="E4">
         <v>0</v>
@@ -1104,7 +1104,7 @@
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>-1.48 (-3.07, 0.12)</t>
+          <t>-1.49 (-3.08, 0.11)</t>
         </is>
       </c>
       <c r="D5">
@@ -1133,17 +1133,17 @@
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>-0.41 (-1.88, 1.06)</t>
+          <t>-0.45 (-1.92, 1.03)</t>
         </is>
       </c>
       <c r="D6">
-        <v>0.59</v>
+        <v>0.55</v>
       </c>
       <c r="E6">
         <v>0</v>
       </c>
       <c r="F6">
-        <v>0.5600000000000001</v>
+        <v>0.57</v>
       </c>
       <c r="G6">
         <v>0.75</v>
@@ -1172,7 +1172,7 @@
         <v>0</v>
       </c>
       <c r="F7">
-        <v>1.52</v>
+        <v>1.53</v>
       </c>
       <c r="G7">
         <v>1.23</v>
@@ -1191,7 +1191,7 @@
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>0.84 (0.23, 1.44)</t>
+          <t>0.82 (0.18, 1.46)</t>
         </is>
       </c>
       <c r="D8">
@@ -1201,10 +1201,10 @@
         <v>0</v>
       </c>
       <c r="F8">
-        <v>0.09</v>
+        <v>0.11</v>
       </c>
       <c r="G8">
-        <v>0.31</v>
+        <v>0.33</v>
       </c>
     </row>
     <row r="9">
@@ -1215,25 +1215,25 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>educationMissing</t>
+          <t>educationNon-formal</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>-11.95 (-513.7, 489.81)</t>
+          <t>0.63 (-0.41, 1.68)</t>
         </is>
       </c>
       <c r="D9">
-        <v>0.96</v>
+        <v>0.23</v>
       </c>
       <c r="E9">
         <v>0</v>
       </c>
       <c r="F9">
-        <v>65537.03</v>
+        <v>0.28</v>
       </c>
       <c r="G9">
-        <v>256</v>
+        <v>0.53</v>
       </c>
     </row>
     <row r="10">
@@ -1244,25 +1244,25 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>educationNon-formal</t>
+          <t>educationPrimary</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>0.55 (-0.43, 1.53)</t>
+          <t>0.77 (-0.06, 1.6)</t>
         </is>
       </c>
       <c r="D10">
-        <v>0.27</v>
+        <v>0.07000000000000001</v>
       </c>
       <c r="E10">
         <v>0</v>
       </c>
       <c r="F10">
-        <v>0.25</v>
+        <v>0.18</v>
       </c>
       <c r="G10">
-        <v>0.5</v>
+        <v>0.42</v>
       </c>
     </row>
     <row r="11">
@@ -1273,25 +1273,25 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>educationPrimary</t>
+          <t>educationSenior secondary</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>0.74 (-0.04, 1.51)</t>
+          <t>0.63 (-0.04, 1.3)</t>
         </is>
       </c>
       <c r="D11">
-        <v>0.06</v>
+        <v>0.07000000000000001</v>
       </c>
       <c r="E11">
         <v>0</v>
       </c>
       <c r="F11">
-        <v>0.16</v>
+        <v>0.12</v>
       </c>
       <c r="G11">
-        <v>0.4</v>
+        <v>0.34</v>
       </c>
     </row>
     <row r="12">
@@ -1302,25 +1302,25 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>educationSenior secondary</t>
+          <t>alcohol_weekly</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>0.64 (0, 1.29)</t>
+          <t>0.21 (0.06, 0.36)</t>
         </is>
       </c>
       <c r="D12">
-        <v>0.05</v>
+        <v>0.01</v>
       </c>
       <c r="E12">
         <v>0</v>
       </c>
       <c r="F12">
-        <v>0.11</v>
+        <v>0.01</v>
       </c>
       <c r="G12">
-        <v>0.33</v>
+        <v>0.08</v>
       </c>
     </row>
     <row r="13">
@@ -1331,16 +1331,16 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>alcohol_weekly</t>
+          <t>partners_12mos</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>0.21 (0.05, 0.36)</t>
+          <t>0.19 (-0.03, 0.42)</t>
         </is>
       </c>
       <c r="D13">
-        <v>0.01</v>
+        <v>0.09</v>
       </c>
       <c r="E13">
         <v>0</v>
@@ -1349,7 +1349,7 @@
         <v>0.01</v>
       </c>
       <c r="G13">
-        <v>0.08</v>
+        <v>0.11</v>
       </c>
     </row>
     <row r="14">
@@ -1360,25 +1360,25 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>partners_12mos</t>
+          <t>prop_began_infected</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>0.2 (-0.02, 0.43)</t>
+          <t>4.73 (1.89, 7.56)</t>
         </is>
       </c>
       <c r="D14">
-        <v>0.07000000000000001</v>
+        <v>0</v>
       </c>
       <c r="E14">
         <v>0</v>
       </c>
       <c r="F14">
-        <v>0.01</v>
+        <v>2.09</v>
       </c>
       <c r="G14">
-        <v>0.11</v>
+        <v>1.45</v>
       </c>
     </row>
     <row r="15">
@@ -1389,25 +1389,25 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>prop_began_infected</t>
+          <t>prop_male</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>4.48 (1.64, 7.31)</t>
+          <t>7.07 (-0.23, 14.38)</t>
         </is>
       </c>
       <c r="D15">
-        <v>0</v>
+        <v>0.06</v>
       </c>
       <c r="E15">
         <v>0</v>
       </c>
       <c r="F15">
-        <v>2.09</v>
+        <v>13.9</v>
       </c>
       <c r="G15">
-        <v>1.45</v>
+        <v>3.73</v>
       </c>
     </row>
     <row r="16">
@@ -1418,25 +1418,170 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>prop_male</t>
+          <t>monthly_income1000-4999 pula</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>7.08 (-0.2, 14.37)</t>
+          <t>0.17 (-0.92, 1.25)</t>
         </is>
       </c>
       <c r="D16">
-        <v>0.06</v>
+        <v>0.76</v>
       </c>
       <c r="E16">
         <v>0</v>
       </c>
       <c r="F16">
-        <v>13.81</v>
+        <v>0.31</v>
       </c>
       <c r="G16">
-        <v>3.72</v>
+        <v>0.55</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>Total Effects Model</t>
+        </is>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>monthly_income200-499 pula</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>-0.42 (-1.7, 0.87)</t>
+        </is>
+      </c>
+      <c r="D17">
+        <v>0.53</v>
+      </c>
+      <c r="E17">
+        <v>0</v>
+      </c>
+      <c r="F17">
+        <v>0.43</v>
+      </c>
+      <c r="G17">
+        <v>0.66</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>Total Effects Model</t>
+        </is>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>monthly_income500-999 pula</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>0.08 (-1.02, 1.19)</t>
+        </is>
+      </c>
+      <c r="D18">
+        <v>0.89</v>
+      </c>
+      <c r="E18">
+        <v>0</v>
+      </c>
+      <c r="F18">
+        <v>0.32</v>
+      </c>
+      <c r="G18">
+        <v>0.5600000000000001</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>Total Effects Model</t>
+        </is>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>monthly_income5000-10000 pula</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>-0.69 (-2.46, 1.09)</t>
+        </is>
+      </c>
+      <c r="D19">
+        <v>0.45</v>
+      </c>
+      <c r="E19">
+        <v>0</v>
+      </c>
+      <c r="F19">
+        <v>0.82</v>
+      </c>
+      <c r="G19">
+        <v>0.9</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>Total Effects Model</t>
+        </is>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>monthly_incomeMore than 10000 pula</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>-0.22 (-2.5, 2.06)</t>
+        </is>
+      </c>
+      <c r="D20">
+        <v>0.85</v>
+      </c>
+      <c r="E20">
+        <v>0</v>
+      </c>
+      <c r="F20">
+        <v>1.35</v>
+      </c>
+      <c r="G20">
+        <v>1.16</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="inlineStr">
+        <is>
+          <t>Total Effects Model</t>
+        </is>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>monthly_incomeNo income</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>-0.19 (-1.22, 0.83)</t>
+        </is>
+      </c>
+      <c r="D21">
+        <v>0.72</v>
+      </c>
+      <c r="E21">
+        <v>0</v>
+      </c>
+      <c r="F21">
+        <v>0.27</v>
+      </c>
+      <c r="G21">
+        <v>0.52</v>
       </c>
     </row>
   </sheetData>
@@ -1446,7 +1591,7 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G16"/>
+  <dimension ref="A1:G21"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -1502,7 +1647,7 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>0.64 (0.46, 0.9)</t>
+          <t>0.64 (0.45, 0.89)</t>
         </is>
       </c>
       <c r="D2">
@@ -1531,7 +1676,7 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>0.24 (0.15, 0.38)</t>
+          <t>0.24 (0.15, 0.37)</t>
         </is>
       </c>
       <c r="D3">
@@ -1564,7 +1709,7 @@
         </is>
       </c>
       <c r="D4">
-        <v>0.06</v>
+        <v>0.03</v>
       </c>
       <c r="E4">
         <v>0</v>
@@ -1589,7 +1734,7 @@
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>0.23 (0.05, 1.13)</t>
+          <t>0.23 (0.05, 1.12)</t>
         </is>
       </c>
       <c r="D5">
@@ -1618,17 +1763,17 @@
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>0.66 (0.15, 2.89)</t>
+          <t>0.64 (0.15, 2.79)</t>
         </is>
       </c>
       <c r="D6">
-        <v>0.59</v>
+        <v>0.55</v>
       </c>
       <c r="E6">
         <v>0</v>
       </c>
       <c r="F6">
-        <v>0.5600000000000001</v>
+        <v>0.57</v>
       </c>
       <c r="G6">
         <v>0.75</v>
@@ -1657,7 +1802,7 @@
         <v>0</v>
       </c>
       <c r="F7">
-        <v>1.52</v>
+        <v>1.53</v>
       </c>
       <c r="G7">
         <v>1.23</v>
@@ -1676,7 +1821,7 @@
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>2.31 (1.26, 4.21)</t>
+          <t>2.26 (1.19, 4.29)</t>
         </is>
       </c>
       <c r="D8">
@@ -1686,10 +1831,10 @@
         <v>0</v>
       </c>
       <c r="F8">
-        <v>0.09</v>
+        <v>0.11</v>
       </c>
       <c r="G8">
-        <v>0.31</v>
+        <v>0.33</v>
       </c>
     </row>
     <row r="9">
@@ -1700,25 +1845,25 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>educationMissing</t>
+          <t>educationNon-formal</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>0 (0, 5.24436816229236e+212)</t>
+          <t>1.89 (0.66, 5.36)</t>
         </is>
       </c>
       <c r="D9">
-        <v>0.96</v>
+        <v>0.23</v>
       </c>
       <c r="E9">
         <v>0</v>
       </c>
       <c r="F9">
-        <v>65537.03</v>
+        <v>0.28</v>
       </c>
       <c r="G9">
-        <v>256</v>
+        <v>0.53</v>
       </c>
     </row>
     <row r="10">
@@ -1729,25 +1874,25 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>educationNon-formal</t>
+          <t>educationPrimary</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>1.73 (0.65, 4.62)</t>
+          <t>2.16 (0.94, 4.97)</t>
         </is>
       </c>
       <c r="D10">
-        <v>0.27</v>
+        <v>0.07000000000000001</v>
       </c>
       <c r="E10">
         <v>0</v>
       </c>
       <c r="F10">
-        <v>0.25</v>
+        <v>0.18</v>
       </c>
       <c r="G10">
-        <v>0.5</v>
+        <v>0.42</v>
       </c>
     </row>
     <row r="11">
@@ -1758,25 +1903,25 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>educationPrimary</t>
+          <t>educationSenior secondary</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>2.09 (0.96, 4.55)</t>
+          <t>1.87 (0.96, 3.66)</t>
         </is>
       </c>
       <c r="D11">
-        <v>0.06</v>
+        <v>0.07000000000000001</v>
       </c>
       <c r="E11">
         <v>0</v>
       </c>
       <c r="F11">
-        <v>0.16</v>
+        <v>0.12</v>
       </c>
       <c r="G11">
-        <v>0.4</v>
+        <v>0.34</v>
       </c>
     </row>
     <row r="12">
@@ -1787,25 +1932,25 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>educationSenior secondary</t>
+          <t>alcohol_weekly</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>1.91 (1, 3.62)</t>
+          <t>1.23 (1.06, 1.43)</t>
         </is>
       </c>
       <c r="D12">
-        <v>0.05</v>
+        <v>0.01</v>
       </c>
       <c r="E12">
         <v>0</v>
       </c>
       <c r="F12">
-        <v>0.11</v>
+        <v>0.01</v>
       </c>
       <c r="G12">
-        <v>0.33</v>
+        <v>0.08</v>
       </c>
     </row>
     <row r="13">
@@ -1816,16 +1961,16 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>alcohol_weekly</t>
+          <t>partners_12mos</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>1.23 (1.06, 1.43)</t>
+          <t>1.21 (0.97, 1.52)</t>
         </is>
       </c>
       <c r="D13">
-        <v>0.01</v>
+        <v>0.09</v>
       </c>
       <c r="E13">
         <v>0</v>
@@ -1834,7 +1979,7 @@
         <v>0.01</v>
       </c>
       <c r="G13">
-        <v>0.08</v>
+        <v>0.11</v>
       </c>
     </row>
     <row r="14">
@@ -1845,25 +1990,25 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>partners_12mos</t>
+          <t>prop_began_infected</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>1.23 (0.98, 1.53)</t>
+          <t>112.73 (6.62, 1921.08)</t>
         </is>
       </c>
       <c r="D14">
-        <v>0.07000000000000001</v>
+        <v>0</v>
       </c>
       <c r="E14">
         <v>0</v>
       </c>
       <c r="F14">
-        <v>0.01</v>
+        <v>2.09</v>
       </c>
       <c r="G14">
-        <v>0.11</v>
+        <v>1.45</v>
       </c>
     </row>
     <row r="15">
@@ -1874,25 +2019,25 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>prop_began_infected</t>
+          <t>prop_male</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>87.88 (5.17, 1493.56)</t>
+          <t>1178.83 (0.79, 1757545.21)</t>
         </is>
       </c>
       <c r="D15">
-        <v>0</v>
+        <v>0.06</v>
       </c>
       <c r="E15">
         <v>0</v>
       </c>
       <c r="F15">
-        <v>2.09</v>
+        <v>13.9</v>
       </c>
       <c r="G15">
-        <v>1.45</v>
+        <v>3.73</v>
       </c>
     </row>
     <row r="16">
@@ -1903,25 +2048,170 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>prop_male</t>
+          <t>monthly_income1000-4999 pula</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>1192.11 (0.82, 1735094.28)</t>
+          <t>1.18 (0.4, 3.49)</t>
         </is>
       </c>
       <c r="D16">
-        <v>0.06</v>
+        <v>0.76</v>
       </c>
       <c r="E16">
         <v>0</v>
       </c>
       <c r="F16">
-        <v>13.81</v>
+        <v>0.31</v>
       </c>
       <c r="G16">
-        <v>3.72</v>
+        <v>0.55</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>Total Effects Model</t>
+        </is>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>monthly_income200-499 pula</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>0.66 (0.18, 2.4)</t>
+        </is>
+      </c>
+      <c r="D17">
+        <v>0.53</v>
+      </c>
+      <c r="E17">
+        <v>0</v>
+      </c>
+      <c r="F17">
+        <v>0.43</v>
+      </c>
+      <c r="G17">
+        <v>0.66</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>Total Effects Model</t>
+        </is>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>monthly_income500-999 pula</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>1.08 (0.36, 3.27)</t>
+        </is>
+      </c>
+      <c r="D18">
+        <v>0.89</v>
+      </c>
+      <c r="E18">
+        <v>0</v>
+      </c>
+      <c r="F18">
+        <v>0.32</v>
+      </c>
+      <c r="G18">
+        <v>0.5600000000000001</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>Total Effects Model</t>
+        </is>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>monthly_income5000-10000 pula</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>0.5 (0.09, 2.96)</t>
+        </is>
+      </c>
+      <c r="D19">
+        <v>0.45</v>
+      </c>
+      <c r="E19">
+        <v>0</v>
+      </c>
+      <c r="F19">
+        <v>0.82</v>
+      </c>
+      <c r="G19">
+        <v>0.9</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>Total Effects Model</t>
+        </is>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>monthly_incomeMore than 10000 pula</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>0.8 (0.08, 7.83)</t>
+        </is>
+      </c>
+      <c r="D20">
+        <v>0.85</v>
+      </c>
+      <c r="E20">
+        <v>0</v>
+      </c>
+      <c r="F20">
+        <v>1.35</v>
+      </c>
+      <c r="G20">
+        <v>1.16</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="inlineStr">
+        <is>
+          <t>Total Effects Model</t>
+        </is>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>monthly_incomeNo income</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>0.83 (0.3, 2.3)</t>
+        </is>
+      </c>
+      <c r="D21">
+        <v>0.72</v>
+      </c>
+      <c r="E21">
+        <v>0</v>
+      </c>
+      <c r="F21">
+        <v>0.27</v>
+      </c>
+      <c r="G21">
+        <v>0.52</v>
       </c>
     </row>
   </sheetData>
@@ -1931,7 +2221,7 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G17"/>
+  <dimension ref="A1:G22"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -1987,7 +2277,7 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>-0.44 (-0.78, -0.1)</t>
+          <t>-0.45 (-0.78, -0.11)</t>
         </is>
       </c>
       <c r="D2">
@@ -2016,7 +2306,7 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>0.46 (0.09, 0.82)</t>
+          <t>0.43 (0.07, 0.8)</t>
         </is>
       </c>
       <c r="D3">
@@ -2045,7 +2335,7 @@
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>-1.36 (-1.81, -0.91)</t>
+          <t>-1.38 (-1.84, -0.93)</t>
         </is>
       </c>
       <c r="D4">
@@ -2074,11 +2364,11 @@
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>-0.02 (-0.04, 0)</t>
+          <t>-0.02 (-0.05, 0)</t>
         </is>
       </c>
       <c r="D5">
-        <v>0.05</v>
+        <v>0.03</v>
       </c>
       <c r="E5">
         <v>0</v>
@@ -2103,7 +2393,7 @@
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>-1.49 (-3.09, 0.11)</t>
+          <t>-1.5 (-3.1, 0.1)</t>
         </is>
       </c>
       <c r="D6">
@@ -2116,7 +2406,7 @@
         <v>0.66</v>
       </c>
       <c r="G6">
-        <v>0.8100000000000001</v>
+        <v>0.82</v>
       </c>
     </row>
     <row r="7">
@@ -2132,17 +2422,17 @@
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>-0.46 (-1.93, 1.02)</t>
+          <t>-0.49 (-1.96, 0.99)</t>
         </is>
       </c>
       <c r="D7">
-        <v>0.54</v>
+        <v>0.52</v>
       </c>
       <c r="E7">
         <v>0</v>
       </c>
       <c r="F7">
-        <v>0.5600000000000001</v>
+        <v>0.57</v>
       </c>
       <c r="G7">
         <v>0.75</v>
@@ -2171,10 +2461,10 @@
         <v>0</v>
       </c>
       <c r="F8">
-        <v>1.52</v>
+        <v>1.53</v>
       </c>
       <c r="G8">
-        <v>1.23</v>
+        <v>1.24</v>
       </c>
     </row>
     <row r="9">
@@ -2190,7 +2480,7 @@
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>0.85 (0.25, 1.45)</t>
+          <t>0.83 (0.19, 1.47)</t>
         </is>
       </c>
       <c r="D9">
@@ -2200,10 +2490,10 @@
         <v>0</v>
       </c>
       <c r="F9">
-        <v>0.09</v>
+        <v>0.11</v>
       </c>
       <c r="G9">
-        <v>0.31</v>
+        <v>0.33</v>
       </c>
     </row>
     <row r="10">
@@ -2214,25 +2504,25 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>educationMissing</t>
+          <t>educationNon-formal</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>-18.11 (-56354.49, 56318.27)</t>
+          <t>0.69 (-0.35, 1.74)</t>
         </is>
       </c>
       <c r="D10">
-        <v>1</v>
+        <v>0.19</v>
       </c>
       <c r="E10">
         <v>0</v>
       </c>
       <c r="F10">
-        <v>826193350.37</v>
+        <v>0.29</v>
       </c>
       <c r="G10">
-        <v>28743.58</v>
+        <v>0.53</v>
       </c>
     </row>
     <row r="11">
@@ -2243,25 +2533,25 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>educationNon-formal</t>
+          <t>educationPrimary</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>0.62 (-0.37, 1.6)</t>
+          <t>0.8 (-0.03, 1.63)</t>
         </is>
       </c>
       <c r="D11">
-        <v>0.22</v>
+        <v>0.06</v>
       </c>
       <c r="E11">
         <v>0</v>
       </c>
       <c r="F11">
-        <v>0.25</v>
+        <v>0.18</v>
       </c>
       <c r="G11">
-        <v>0.5</v>
+        <v>0.42</v>
       </c>
     </row>
     <row r="12">
@@ -2272,25 +2562,25 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>educationPrimary</t>
+          <t>educationSenior secondary</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>0.77 (0, 1.55)</t>
+          <t>0.64 (-0.03, 1.31)</t>
         </is>
       </c>
       <c r="D12">
-        <v>0.05</v>
+        <v>0.06</v>
       </c>
       <c r="E12">
         <v>0</v>
       </c>
       <c r="F12">
-        <v>0.16</v>
+        <v>0.12</v>
       </c>
       <c r="G12">
-        <v>0.4</v>
+        <v>0.34</v>
       </c>
     </row>
     <row r="13">
@@ -2301,25 +2591,25 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>educationSenior secondary</t>
+          <t>alcohol_weekly</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>0.66 (0.02, 1.31)</t>
+          <t>0.21 (0.05, 0.36)</t>
         </is>
       </c>
       <c r="D13">
-        <v>0.04</v>
+        <v>0.01</v>
       </c>
       <c r="E13">
         <v>0</v>
       </c>
       <c r="F13">
-        <v>0.11</v>
+        <v>0.01</v>
       </c>
       <c r="G13">
-        <v>0.33</v>
+        <v>0.08</v>
       </c>
     </row>
     <row r="14">
@@ -2330,16 +2620,16 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>alcohol_weekly</t>
+          <t>partners_12mos</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>0.2 (0.05, 0.35)</t>
+          <t>0.19 (-0.04, 0.41)</t>
         </is>
       </c>
       <c r="D14">
-        <v>0.01</v>
+        <v>0.1</v>
       </c>
       <c r="E14">
         <v>0</v>
@@ -2348,7 +2638,7 @@
         <v>0.01</v>
       </c>
       <c r="G14">
-        <v>0.08</v>
+        <v>0.12</v>
       </c>
     </row>
     <row r="15">
@@ -2359,25 +2649,25 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>partners_12mos</t>
+          <t>prop_began_infected</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>0.2 (-0.03, 0.42)</t>
+          <t>4.88 (2.02, 7.73)</t>
         </is>
       </c>
       <c r="D15">
-        <v>0.08</v>
+        <v>0</v>
       </c>
       <c r="E15">
         <v>0</v>
       </c>
       <c r="F15">
-        <v>0.01</v>
+        <v>2.12</v>
       </c>
       <c r="G15">
-        <v>0.11</v>
+        <v>1.46</v>
       </c>
     </row>
     <row r="16">
@@ -2388,25 +2678,25 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>prop_began_infected</t>
+          <t>prop_male</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>4.66 (1.8, 7.53)</t>
+          <t>7.09 (-0.24, 14.42)</t>
         </is>
       </c>
       <c r="D16">
-        <v>0</v>
+        <v>0.06</v>
       </c>
       <c r="E16">
         <v>0</v>
       </c>
       <c r="F16">
-        <v>2.13</v>
+        <v>13.98</v>
       </c>
       <c r="G16">
-        <v>1.46</v>
+        <v>3.74</v>
       </c>
     </row>
     <row r="17">
@@ -2417,25 +2707,170 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>prop_male</t>
+          <t>monthly_income1000-4999 pula</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>7.11 (-0.22, 14.45)</t>
+          <t>0.17 (-0.91, 1.26)</t>
         </is>
       </c>
       <c r="D17">
-        <v>0.06</v>
+        <v>0.76</v>
       </c>
       <c r="E17">
         <v>0</v>
       </c>
       <c r="F17">
-        <v>14</v>
+        <v>0.31</v>
       </c>
       <c r="G17">
-        <v>3.74</v>
+        <v>0.55</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>Direct Effects Model</t>
+        </is>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>monthly_income200-499 pula</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>-0.38 (-1.67, 0.91)</t>
+        </is>
+      </c>
+      <c r="D18">
+        <v>0.57</v>
+      </c>
+      <c r="E18">
+        <v>0</v>
+      </c>
+      <c r="F18">
+        <v>0.43</v>
+      </c>
+      <c r="G18">
+        <v>0.66</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>Direct Effects Model</t>
+        </is>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>monthly_income500-999 pula</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>0.08 (-1.03, 1.19)</t>
+        </is>
+      </c>
+      <c r="D19">
+        <v>0.89</v>
+      </c>
+      <c r="E19">
+        <v>0</v>
+      </c>
+      <c r="F19">
+        <v>0.32</v>
+      </c>
+      <c r="G19">
+        <v>0.5600000000000001</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>Direct Effects Model</t>
+        </is>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>monthly_income5000-10000 pula</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>-0.64 (-2.41, 1.14)</t>
+        </is>
+      </c>
+      <c r="D20">
+        <v>0.48</v>
+      </c>
+      <c r="E20">
+        <v>0</v>
+      </c>
+      <c r="F20">
+        <v>0.82</v>
+      </c>
+      <c r="G20">
+        <v>0.91</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="inlineStr">
+        <is>
+          <t>Direct Effects Model</t>
+        </is>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>monthly_incomeMore than 10000 pula</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>-0.2 (-2.48, 2.09)</t>
+        </is>
+      </c>
+      <c r="D21">
+        <v>0.87</v>
+      </c>
+      <c r="E21">
+        <v>0</v>
+      </c>
+      <c r="F21">
+        <v>1.36</v>
+      </c>
+      <c r="G21">
+        <v>1.16</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="inlineStr">
+        <is>
+          <t>Direct Effects Model</t>
+        </is>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>monthly_incomeNo income</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>-0.17 (-1.19, 0.86)</t>
+        </is>
+      </c>
+      <c r="D22">
+        <v>0.75</v>
+      </c>
+      <c r="E22">
+        <v>0</v>
+      </c>
+      <c r="F22">
+        <v>0.27</v>
+      </c>
+      <c r="G22">
+        <v>0.52</v>
       </c>
     </row>
   </sheetData>
@@ -2445,7 +2880,7 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G17"/>
+  <dimension ref="A1:G22"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -2501,7 +2936,7 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>0.65 (0.46, 0.91)</t>
+          <t>0.64 (0.46, 0.9)</t>
         </is>
       </c>
       <c r="D2">
@@ -2530,7 +2965,7 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>1.58 (1.09, 2.28)</t>
+          <t>1.54 (1.07, 2.23)</t>
         </is>
       </c>
       <c r="D3">
@@ -2559,7 +2994,7 @@
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>0.26 (0.16, 0.4)</t>
+          <t>0.25 (0.16, 0.4)</t>
         </is>
       </c>
       <c r="D4">
@@ -2592,7 +3027,7 @@
         </is>
       </c>
       <c r="D5">
-        <v>0.05</v>
+        <v>0.03</v>
       </c>
       <c r="E5">
         <v>0</v>
@@ -2617,7 +3052,7 @@
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>0.23 (0.05, 1.11)</t>
+          <t>0.22 (0.05, 1.1)</t>
         </is>
       </c>
       <c r="D6">
@@ -2630,7 +3065,7 @@
         <v>0.66</v>
       </c>
       <c r="G6">
-        <v>0.8100000000000001</v>
+        <v>0.82</v>
       </c>
     </row>
     <row r="7">
@@ -2646,17 +3081,17 @@
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>0.63 (0.15, 2.76)</t>
+          <t>0.61 (0.14, 2.68)</t>
         </is>
       </c>
       <c r="D7">
-        <v>0.54</v>
+        <v>0.52</v>
       </c>
       <c r="E7">
         <v>0</v>
       </c>
       <c r="F7">
-        <v>0.5600000000000001</v>
+        <v>0.57</v>
       </c>
       <c r="G7">
         <v>0.75</v>
@@ -2675,7 +3110,7 @@
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>0.23 (0.02, 2.53)</t>
+          <t>0.23 (0.02, 2.54)</t>
         </is>
       </c>
       <c r="D8">
@@ -2685,10 +3120,10 @@
         <v>0</v>
       </c>
       <c r="F8">
-        <v>1.52</v>
+        <v>1.53</v>
       </c>
       <c r="G8">
-        <v>1.23</v>
+        <v>1.24</v>
       </c>
     </row>
     <row r="9">
@@ -2704,7 +3139,7 @@
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>2.34 (1.28, 4.28)</t>
+          <t>2.3 (1.21, 4.35)</t>
         </is>
       </c>
       <c r="D9">
@@ -2714,10 +3149,10 @@
         <v>0</v>
       </c>
       <c r="F9">
-        <v>0.09</v>
+        <v>0.11</v>
       </c>
       <c r="G9">
-        <v>0.31</v>
+        <v>0.33</v>
       </c>
     </row>
     <row r="10">
@@ -2728,25 +3163,25 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>educationMissing</t>
+          <t>educationNon-formal</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>0 (0, Inf)</t>
+          <t>2 (0.7, 5.7)</t>
         </is>
       </c>
       <c r="D10">
-        <v>1</v>
+        <v>0.19</v>
       </c>
       <c r="E10">
         <v>0</v>
       </c>
       <c r="F10">
-        <v>826193350.37</v>
+        <v>0.29</v>
       </c>
       <c r="G10">
-        <v>28743.58</v>
+        <v>0.53</v>
       </c>
     </row>
     <row r="11">
@@ -2757,25 +3192,25 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>educationNon-formal</t>
+          <t>educationPrimary</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>1.86 (0.69, 4.97)</t>
+          <t>2.23 (0.97, 5.13)</t>
         </is>
       </c>
       <c r="D11">
-        <v>0.22</v>
+        <v>0.06</v>
       </c>
       <c r="E11">
         <v>0</v>
       </c>
       <c r="F11">
-        <v>0.25</v>
+        <v>0.18</v>
       </c>
       <c r="G11">
-        <v>0.5</v>
+        <v>0.42</v>
       </c>
     </row>
     <row r="12">
@@ -2786,25 +3221,25 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>educationPrimary</t>
+          <t>educationSenior secondary</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>2.17 (1, 4.72)</t>
+          <t>1.91 (0.97, 3.72)</t>
         </is>
       </c>
       <c r="D12">
-        <v>0.05</v>
+        <v>0.06</v>
       </c>
       <c r="E12">
         <v>0</v>
       </c>
       <c r="F12">
-        <v>0.16</v>
+        <v>0.12</v>
       </c>
       <c r="G12">
-        <v>0.4</v>
+        <v>0.34</v>
       </c>
     </row>
     <row r="13">
@@ -2815,25 +3250,25 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>educationSenior secondary</t>
+          <t>alcohol_weekly</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>1.94 (1.02, 3.69)</t>
+          <t>1.23 (1.06, 1.43)</t>
         </is>
       </c>
       <c r="D13">
-        <v>0.04</v>
+        <v>0.01</v>
       </c>
       <c r="E13">
         <v>0</v>
       </c>
       <c r="F13">
-        <v>0.11</v>
+        <v>0.01</v>
       </c>
       <c r="G13">
-        <v>0.33</v>
+        <v>0.08</v>
       </c>
     </row>
     <row r="14">
@@ -2844,16 +3279,16 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>alcohol_weekly</t>
+          <t>partners_12mos</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>1.23 (1.06, 1.43)</t>
+          <t>1.21 (0.96, 1.51)</t>
         </is>
       </c>
       <c r="D14">
-        <v>0.01</v>
+        <v>0.1</v>
       </c>
       <c r="E14">
         <v>0</v>
@@ -2862,7 +3297,7 @@
         <v>0.01</v>
       </c>
       <c r="G14">
-        <v>0.08</v>
+        <v>0.12</v>
       </c>
     </row>
     <row r="15">
@@ -2873,25 +3308,25 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>partners_12mos</t>
+          <t>prop_began_infected</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>1.22 (0.97, 1.53)</t>
+          <t>131.28 (7.55, 2282.28)</t>
         </is>
       </c>
       <c r="D15">
-        <v>0.08</v>
+        <v>0</v>
       </c>
       <c r="E15">
         <v>0</v>
       </c>
       <c r="F15">
-        <v>0.01</v>
+        <v>2.12</v>
       </c>
       <c r="G15">
-        <v>0.11</v>
+        <v>1.46</v>
       </c>
     </row>
     <row r="16">
@@ -2902,25 +3337,25 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>prop_began_infected</t>
+          <t>prop_male</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>106.05 (6.06, 1854.71)</t>
+          <t>1197.49 (0.79, 1822982.78)</t>
         </is>
       </c>
       <c r="D16">
-        <v>0</v>
+        <v>0.06</v>
       </c>
       <c r="E16">
         <v>0</v>
       </c>
       <c r="F16">
-        <v>2.13</v>
+        <v>13.98</v>
       </c>
       <c r="G16">
-        <v>1.46</v>
+        <v>3.74</v>
       </c>
     </row>
     <row r="17">
@@ -2931,25 +3366,170 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>prop_male</t>
+          <t>monthly_income1000-4999 pula</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>1229.06 (0.8, 1881669.15)</t>
+          <t>1.19 (0.4, 3.52)</t>
         </is>
       </c>
       <c r="D17">
-        <v>0.06</v>
+        <v>0.76</v>
       </c>
       <c r="E17">
         <v>0</v>
       </c>
       <c r="F17">
-        <v>14</v>
+        <v>0.31</v>
       </c>
       <c r="G17">
-        <v>3.74</v>
+        <v>0.55</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>Direct Effects Model</t>
+        </is>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>monthly_income200-499 pula</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>0.69 (0.19, 2.49)</t>
+        </is>
+      </c>
+      <c r="D18">
+        <v>0.57</v>
+      </c>
+      <c r="E18">
+        <v>0</v>
+      </c>
+      <c r="F18">
+        <v>0.43</v>
+      </c>
+      <c r="G18">
+        <v>0.66</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>Direct Effects Model</t>
+        </is>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>monthly_income500-999 pula</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>1.08 (0.36, 3.27)</t>
+        </is>
+      </c>
+      <c r="D19">
+        <v>0.89</v>
+      </c>
+      <c r="E19">
+        <v>0</v>
+      </c>
+      <c r="F19">
+        <v>0.32</v>
+      </c>
+      <c r="G19">
+        <v>0.5600000000000001</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>Direct Effects Model</t>
+        </is>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>monthly_income5000-10000 pula</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>0.53 (0.09, 3.12)</t>
+        </is>
+      </c>
+      <c r="D20">
+        <v>0.48</v>
+      </c>
+      <c r="E20">
+        <v>0</v>
+      </c>
+      <c r="F20">
+        <v>0.82</v>
+      </c>
+      <c r="G20">
+        <v>0.91</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="inlineStr">
+        <is>
+          <t>Direct Effects Model</t>
+        </is>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>monthly_incomeMore than 10000 pula</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>0.82 (0.08, 8.05)</t>
+        </is>
+      </c>
+      <c r="D21">
+        <v>0.87</v>
+      </c>
+      <c r="E21">
+        <v>0</v>
+      </c>
+      <c r="F21">
+        <v>1.36</v>
+      </c>
+      <c r="G21">
+        <v>1.16</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="inlineStr">
+        <is>
+          <t>Direct Effects Model</t>
+        </is>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>monthly_incomeNo income</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>0.85 (0.3, 2.37)</t>
+        </is>
+      </c>
+      <c r="D22">
+        <v>0.75</v>
+      </c>
+      <c r="E22">
+        <v>0</v>
+      </c>
+      <c r="F22">
+        <v>0.27</v>
+      </c>
+      <c r="G22">
+        <v>0.52</v>
       </c>
     </row>
   </sheetData>
@@ -3007,7 +3587,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>prop_vlsupp</t>
+          <t>T_k:monthly_income</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -3024,7 +3604,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>T_k:monthly_income</t>
+          <t>T_k:age</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -3041,7 +3621,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>monthly_income</t>
+          <t>T_k:education</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -3053,12 +3633,12 @@
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>monthly_income</t>
+          <t>alcohol_weekly</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>T_k:age</t>
+          <t>T_k:gender</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -3070,12 +3650,7 @@
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>alcohol_weekly</t>
-        </is>
-      </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>T_k:gender</t>
+          <t>partners_12mos</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
@@ -3087,7 +3662,7 @@
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>partners_12mos</t>
+          <t>prop_began_infected</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
@@ -3099,7 +3674,7 @@
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>prop_began_infected</t>
+          <t>prop_male</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
@@ -3111,7 +3686,7 @@
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>prop_male</t>
+          <t>monthly_income</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
@@ -3123,28 +3698,33 @@
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>prop_vlsupp</t>
+          <t>T_k*gender</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>monthly_income</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>T_k*gender</t>
+          <t>T_k*age</t>
         </is>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>T_k*age</t>
+          <t>T_k*monthly_income</t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>T_k*monthly_income</t>
+          <t>T_k*education</t>
         </is>
       </c>
     </row>
